--- a/results/greedy_with_vertex_degree_sort_and_randomize.xlsx
+++ b/results/greedy_with_vertex_degree_sort_and_randomize.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,18 +468,18 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>myciel3.col.txt</t>
+          <t>anna.col</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>9.775161743164062e-06</v>
+        <v>0.0001962184906005859</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[[10, 4, 0], [2, 3, 7, 8], [1, 6, 9], [5]]</t>
+          <t>[[17, 53, 132, 60, 29, 100, 92, 125, 36, 16, 46, 136, 111, 121, 64, 133, 51, 97, 116, 109, 13, 118, 37, 23, 101, 128, 4, 47, 124, 1, 55, 2, 65, 0, 70, 85], [35, 77, 69, 28, 67, 119, 8, 52, 108, 48, 33, 57, 24, 81, 21, 89, 61, 11, 83, 96, 59, 43, 66, 54, 74, 40, 110, 9, 7, 68, 49, 104, 127, 123, 62, 106, 26, 113, 22, 38, 86, 30, 14, 41, 87, 3, 42, 112, 120], [94, 88, 20, 6, 126, 58, 56, 129, 15, 122, 27, 130, 12, 39, 10, 34, 131, 79, 95], [73, 63, 99, 76, 105, 117, 114, 78, 103, 102], [71, 135, 91, 75, 45, 93], [137, 31, 5, 50, 25], [134, 32, 44, 18, 72], [115, 19, 84, 82], [98, 107], [80], [90]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -497,18 +497,18 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>inithx.i.1.col</t>
+          <t>le450_15b.col</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005708932876586914</v>
+        <v>0.002025127410888672</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[[1, 16, 188, 810, 433, 280, 247, 439, 358, 300, 274, 100, 487, 297, 677, 555, 407, 197, 124, 92, 819, 737, 293, 676, 93, 468, 409, 756, 202, 160, 175, 314, 660, 96, 435, 437, 423, 334, 536, 390, 455, 608, 722, 557, 682, 380, 205, 515, 834, 113, 709, 547, 726, 652, 288, 526, 758, 796, 680, 847, 168, 351, 550, 833, 772, 316, 861, 839, 248, 743, 387, 599, 309, 148, 686, 837, 410, 222, 134, 698, 319, 552, 369, 516, 859, 398, 740, 537, 622, 821, 501, 522, 718, 146, 511, 759, 667, 780, 752, 763, 249, 183, 166, 782, 642, 794, 691, 147, 393, 766, 735, 754, 262, 805, 171, 827, 700, 227, 438, 842, 701, 353, 157, 402, 225, 823, 768, 624, 110, 456, 329, 736, 716, 156, 302, 812, 362, 463, 510, 298, 264, 668, 122, 230, 246, 415, 310, 125, 34, 705, 340, 139, 458, 245, 121, 528, 853, 126, 318, 531, 769, 519, 395, 426, 525, 606, 374, 385, 830, 176, 217, 446, 665, 145, 685, 521, 513, 741, 633, 631, 178, 815, 180, 862, 690, 567, 502, 832, 817, 761, 719, 818, 143, 425, 724, 488, 801, 514, 416, 791, 804, 811, 345, 234, 360, 155, 596, 418, 684, 123, 315, 820, 534, 331, 150, 292, 194, 762, 494, 382, 432, 504, 91, 354, 295, 137, 119, 163, 412, 554, 130, 414, 850, 693, 489, 449, 577, 356, 366, 649, 109, 482, 508, 628, 849, 748, 621, 106, 558, 117, 220, 498, 496, 799, 135, 470, 773, 636, 405, 581, 713, 523, 790, 816, 553, 532, 467, 128, 714, 527, 251, 258, 428, 342, 349, 580, 212, 149, 787, 159, 689, 589, 242, 394, 103, 792, 193, 210, 562, 332, 283, 838, 259, 469, 243, 177, 127, 474, 518, 617, 272, 236, 307, 483, 835, 666, 323, 299, 670, 215, 638, 492, 570, 285, 397, 389, 530, 170, 154, 268, 579, 687, 278, 391, 813, 539, 814, 613, 294, 411, 325, 569, 560, 739, 461, 448, 152, 585, 798, 321, 379, 775, 290, 535, 153, 347, 751], [0, 26], [2, 29], [72, 80], [73, 81], [74, 82], [28, 11], [30, 10], [31, 12], [27, 13], [75, 83], [76, 84], [77, 85], [79, 86], [78, 87], [25, 15], [101, 88, 98, 95], [24, 14], [23, 111], [22, 9], [21, 8], [20, 7], [19, 6], [18, 5], [17, 4], [107, 3, 46, 105, 102, 99], [89, 192, 559, 112, 500, 637, 47, 679, 181, 186, 190, 179, 185, 730, 480, 477, 662, 733, 728, 663, 734, 481, 757, 807, 806, 797], [94, 90, 578, 348, 505, 520, 48, 495, 657, 639, 706, 499, 440, 616, 503, 618, 462, 451, 619, 472, 464, 454, 457, 429, 478, 471, 476, 447, 712, 475, 731, 466, 436, 732, 620, 453, 450, 729, 655], [108, 191, 116, 603, 587, 493, 497, 529, 507, 115, 600, 584, 658, 601, 707, 189, 441, 512, 182, 506, 184, 651, 445, 452, 602, 711, 459, 465, 653, 710, 473, 661, 654], [53, 350, 271, 138, 38, 593, 582, 840, 120, 604, 491, 533, 614, 269, 524, 235, 517, 266, 326, 200, 224, 216, 612, 206, 509, 198, 219, 232, 339, 328, 263, 211, 659, 228, 592, 444, 240, 330, 199, 708, 195, 218, 223, 213, 207, 231, 343, 650], [39, 97, 32, 270, 244, 158, 357, 229, 204, 187, 372, 597, 586, 854, 140, 607, 289, 594, 35, 370, 371, 857, 609, 378, 610, 856, 611, 238, 203, 233, 322, 583, 341, 591, 239, 327, 214, 196, 221, 860, 209, 226, 615, 114, 377, 201], [208, 131, 265, 142, 118, 367, 286, 287, 359, 365, 281, 363, 375, 141, 855, 373, 598, 595, 605, 588, 858, 590, 376], [237, 132, 277, 267, 167, 164, 161, 368, 364, 162, 361, 174, 276], [40, 57, 50, 338, 52, 36, 346, 324, 165, 173, 279, 273, 282, 275], [333, 540, 56, 826, 37, 133, 634, 320, 656, 647, 664, 169], [55, 41, 625, 544, 738, 490, 486], [54, 723, 626, 538, 779, 789, 778, 640, 808, 803, 802, 809, 645, 646, 648], [104, 717, 545, 669, 66, 484, 485, 479, 632, 641, 627, 644], [383, 241, 546, 673, 129, 635, 643, 630, 629], [64, 254, 542, 672, 824, 336, 51, 352, 344, 388, 384], [42, 252, 70, 675, 825, 335, 795, 136, 381, 151], [392, 250, 49, 43, 674, 725, 822, 442, 720, 337, 172, 764, 767, 355, 770, 144], [399, 257, 543, 671, 771, 59, 750, 44, 460, 746, 747, 386, 33, 727, 721, 443, 61], [45, 253, 541, 68, 828, 765, 755, 786, 745, 785, 744, 749, 836, 753, 793, 800], [396, 255, 67, 548, 623, 60, 829, 845, 65, 783, 776, 788, 784, 777, 556, 846, 742], [62, 256, 678, 571, 69, 549, 851, 565, 844, 841, 688, 831, 760, 781, 774, 566], [401, 260, 568, 317, 699, 681, 848, 563, 696, 564, 697, 296, 551, 843], [400, 575, 311, 261, 702, 852, 695, 692, 305, 683, 561, 306], [404, 573, 308, 703, 304, 303, 291, 413, 863, 694, 284], [403, 572, 312, 715, 301], [427, 406, 574, 313, 421, 422, 704], [63, 417, 576, 420, 58, 408], [424, 419, 71], [430, 431, 434]]</t>
+          <t>[[31, 199, 364, 416, 286, 13, 74, 188, 437, 443, 209, 130, 282, 151, 71, 355, 110, 424, 433, 141, 149, 229, 162, 400, 439, 446, 49, 58, 326, 438, 212, 102, 107, 50, 91, 346, 235, 390], [114, 300, 356, 156, 48, 305, 116, 281, 1, 140, 315, 215, 391, 234, 420, 254, 371, 330, 159, 296, 219, 191, 359, 347, 404, 230, 361, 32, 208, 39, 8, 59, 185, 90, 47, 158, 381, 100, 406, 28], [398, 182, 428, 360, 238, 152, 358, 412, 120, 413, 46, 34, 88, 165, 321, 374, 427, 278, 224, 272, 397, 133, 142, 176, 383, 226, 245, 352, 389], [237, 269, 312, 440, 214, 29, 73, 220, 418, 76, 289, 136, 216, 274, 148, 419, 407, 2, 87, 101, 337, 414, 128, 56, 291], [396, 402, 322, 221, 287, 137, 342, 368, 401, 168, 251, 54, 334, 246, 179, 85, 89, 332, 293, 72, 350, 60, 270, 240, 429, 115, 349, 408], [333, 268, 3, 83, 318, 218, 198, 373, 275, 279, 38, 211, 261, 265, 201, 241, 228, 94, 138, 14, 421, 196, 423, 93, 66, 92, 385, 213, 206, 422], [4, 425, 175, 144, 9, 75, 257, 379, 247, 174, 263, 40, 435, 180, 348, 345, 367, 10, 25, 98, 108, 441, 320, 127, 129, 288, 23, 139, 26, 27], [399, 122, 243, 124, 163, 231, 53, 365, 20, 132, 22, 200, 111, 69, 335, 113, 343, 166, 11, 301, 21, 194, 354], [52, 292, 266, 164, 207, 370, 45, 44, 351, 340, 177, 112, 232, 161, 17, 273, 192, 79, 65, 193, 30, 309, 432, 68, 51], [328, 86, 250, 392, 260, 0, 327, 277, 6, 131, 78, 190, 119, 189, 225, 82, 372, 217, 197, 280, 157, 324, 317, 125, 294, 256], [242, 295, 319, 121, 36, 61, 15, 384, 118, 203, 436, 363, 195, 184, 378, 366, 393, 62, 135, 405, 84, 12], [339, 99, 16, 298, 95, 205, 123, 284, 70, 311, 304, 145, 97, 329, 271, 160, 223, 43, 376, 357, 150, 104, 430, 183, 285, 380, 290], [249, 259, 377, 449, 426, 264, 262, 210, 35, 434, 109, 96, 117, 239, 338, 37, 442, 126, 283, 7, 316, 369, 307, 170, 313, 106], [187, 344, 77, 204, 331, 67, 134, 227, 252, 303, 167, 236, 308, 57, 253, 147, 169, 417, 445, 444, 173, 409, 302, 33, 447, 222, 386, 394], [415, 297, 146, 325, 310, 80, 306, 314, 143, 353, 299, 24, 258, 153, 387, 18, 276, 255, 5, 323, 362, 382, 341, 63, 248], [181, 410, 171, 103, 267, 431, 244, 448, 375, 186, 155, 41, 55, 64, 178, 154, 233, 411], [202, 172, 395, 336, 105, 388, 42, 403, 19, 81]]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -526,18 +526,18 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>queen11_11.col</t>
+          <t>le450_5a.col</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002958774566650391</v>
+        <v>0.002242088317871094</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[[60, 69, 83, 51, 37, 8, 98, 112, 22], [61, 48, 80, 95, 27, 74, 34, 9], [50, 71, 58, 84, 92, 13, 99, 43], [70, 49, 36, 62, 28, 101, 119, 87], [59, 72, 38, 25, 46, 100, 117, 77, 21], [47, 39, 81, 73, 24, 56, 20, 5, 88, 118], [82, 40, 96, 68, 26, 105, 53, 55, 3, 111], [52, 93, 35, 29, 12, 86, 6, 114, 109], [94, 79, 63, 102, 16, 31, 45, 10], [91, 30, 57, 106, 78, 75, 4, 120, 11], [90, 85, 18, 108, 23, 44, 76, 113], [41, 14, 103, 97, 54, 0, 116], [67, 42, 19, 104, 65, 110, 2], [89, 64, 107, 15, 33, 7, 115, 32], [17, 1, 66]]</t>
+          <t>[[338, 324, 209, 270, 390, 215, 80, 392, 250, 199, 59, 155, 210, 429, 190, 263, 260, 423, 220, 365, 54, 262, 440, 387, 5, 174, 158, 46, 127, 94, 232, 376, 415, 145, 389, 289, 90, 45, 160, 212, 69, 217, 277, 430, 395, 55, 30], [369, 165, 63, 25, 189, 285, 31, 211, 159, 156, 245, 205, 84, 213, 36, 364, 383, 65, 60, 240, 70, 342, 371, 71, 403, 134, 101, 420, 295, 103, 288, 259, 301, 19, 305, 195, 79, 180, 16, 249, 238, 96, 281, 233], [362, 187, 222, 337, 39, 32, 182, 89, 35, 11, 269, 197, 85, 112, 413, 121, 2, 407, 421, 226, 278, 88, 163, 357, 323, 290, 258, 48, 18, 136, 388, 236, 147, 228, 315, 298, 367, 358, 422, 107, 178, 8, 22, 246, 137, 398, 87, 448, 82], [140, 412, 105, 411, 109, 439, 445, 161, 141, 401, 261, 449, 350, 114, 171, 4, 225, 62, 242, 196, 300, 257, 41, 265, 341, 179, 64, 135, 256, 146, 15, 166, 416, 355, 431, 346, 251, 326, 444, 370, 118, 347, 375, 414, 348, 1, 167, 75, 56, 329, 380, 321, 344], [239, 359, 38, 102, 183, 356, 282, 139, 72, 124, 14, 104, 433, 410, 299, 3, 40, 313, 446, 406, 294, 33, 393, 325, 50, 13, 21, 283, 402, 149, 198, 123, 286, 351, 280, 252, 292, 188, 399, 92, 394, 427, 400, 207, 432, 27], [110, 272, 417, 379, 125, 191, 331, 267, 143, 391, 119, 354, 235, 95, 58, 345, 173, 266, 335, 129, 307, 418, 214, 284, 248, 320, 9, 436, 150, 425, 172, 311, 111, 0, 202, 185, 435, 51, 138, 42, 237, 151, 386, 44, 327, 426, 77, 328, 192], [291, 253, 409, 218, 334, 273, 113, 314, 293, 361, 234, 309, 437, 428, 7, 91, 86, 330, 366, 318, 349, 201, 93, 169, 441, 12, 122, 254, 184, 67, 303, 424, 61, 322, 74, 106, 385, 10, 78, 98, 275, 49, 204, 319], [244, 186, 287, 332, 81, 255, 57, 302, 230, 206, 208, 52, 372, 132, 117, 368, 43, 144, 316, 438, 363, 99, 100, 297, 221, 339, 73, 177, 336, 306, 17, 279, 126], [194, 360, 157, 216, 34, 404, 353, 264, 274, 333, 28, 66, 312, 241, 68, 310, 200, 170, 243, 317, 224, 116, 181, 76, 384, 268, 148, 373, 6, 26, 162, 164, 443, 382, 128, 352, 53, 168, 397], [203, 304, 296, 219, 374, 227, 23, 152, 47, 131, 133, 447, 408, 130, 120, 97, 154, 20, 442, 340, 271, 83, 308, 231, 193, 377, 115, 29, 37, 419], [176, 153, 108, 229, 434, 381, 24, 343, 405, 396, 247, 142, 175, 276, 378, 223]]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -555,18 +555,18 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>mulsol.i.1.col</t>
+          <t>miles1000.col</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008101463317871094</v>
+        <v>0.0004129409790039062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[[0, 16, 57, 174, 80, 170, 68, 192, 118, 193, 77, 75, 158, 88, 167, 100, 121, 83, 132, 85, 102, 93, 139, 99, 71, 155, 189, 78, 81, 182, 179, 65, 185, 195, 169, 181, 105, 104, 122, 60, 133, 187, 69, 123, 115, 178, 96, 97, 142, 166, 140, 171, 154, 157, 184, 112, 109, 91, 131, 114, 94], [1, 25], [38, 46], [39, 47], [40, 48], [2, 24], [41, 49], [42, 50], [13, 23], [43, 8], [12, 22], [44, 9], [45, 15], [11, 59], [55, 10], [56, 51], [58, 7], [21, 6], [20, 52], [19, 53], [18, 5], [61, 4, 188], [29, 54], [26, 14], [28, 3], [31, 64, 190, 191], [27, 66], [30, 79, 67], [17, 74], [62, 70, 186, 196], [63, 73, 194, 183], [87, 130, 159, 144, 76, 163, 137, 150, 134, 37, 165, 126, 153, 138, 125, 129, 120, 124, 135, 127, 128], [86, 161, 33, 146, 173, 175, 164, 136, 152, 149, 162, 176, 172, 177], [84, 160, 148], [82], [103, 89], [90], [98], [106], [110, 92], [113, 95], [111, 101], [116, 107], [117], [119, 108], [32, 72], [34, 168, 180, 141], [143, 156, 36, 35], [147, 145, 151]]</t>
+          <t>[[26, 81, 86, 50, 55, 48], [75, 35, 15, 71, 8, 105], [127, 85, 4, 119, 33, 94, 16], [87, 11, 21, 3], [61, 30, 59, 2], [7, 22, 31, 20], [90, 102, 34, 103, 111], [67, 32, 118, 123], [91, 64, 43, 47, 58], [27, 56, 120, 17], [42, 83, 36, 25], [51, 97, 62, 28], [106, 73, 80, 76], [122, 54, 41, 53], [109, 92, 39, 49], [125, 79, 10, 14], [65, 0, 84], [63, 13, 40, 46], [98, 12], [107, 9], [113, 95], [114, 101], [44, 66, 104], [74, 89], [99, 110], [121, 116, 82], [126, 78], [1, 38], [6, 69], [72, 70, 117], [68, 108, 88], [112, 77], [19, 124], [29, 100], [18, 23], [93, 5, 96], [37], [52], [57], [115], [24], [45], [60]]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,27 +575,27 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>school1.col.txt</t>
+          <t>miles1500.col</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001969099044799805</v>
+        <v>0.0007081031799316406</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[[373, 370, 369, 374, 372, 371, 362, 356, 228, 360, 167, 361, 104, 12, 161, 312, 85, 187, 193, 235, 240, 103, 284, 136, 283], [367, 366, 364, 368, 365, 363, 376, 375, 377, 379, 352, 354, 98, 139, 353, 184, 192, 313, 314, 315, 135, 137], [233, 384, 383, 249, 151, 123, 328, 325, 304, 73, 90, 273, 350, 279, 65, 220, 5, 110, 182, 260, 229, 95, 359, 194, 1, 39], [232, 237, 152, 148, 27, 4, 158, 117, 115, 185, 327, 21, 43, 308, 381], [120, 236, 18, 330, 154, 196, 100, 166, 9, 114, 116, 141, 155, 56, 380, 186], [17, 144, 227, 329, 202, 160, 130, 109, 261, 2, 51, 175, 382], [124, 239, 20, 305, 230, 38, 197, 149, 170, 50, 157, 8, 118, 99, 378], [251, 339, 119, 19, 231, 178, 31, 55, 6, 84], [252, 190, 143, 126, 102, 200, 177, 47, 63, 26, 174, 210], [338, 122, 179, 49, 70, 199, 34, 322, 301, 159, 106, 326], [29, 150, 153, 127, 15, 97, 61, 275, 281, 169, 225, 32, 113, 234, 140], [250, 121, 241, 80, 77, 91, 341, 286, 58, 344, 162, 107], [245, 142, 125, 294, 33, 317, 201, 108, 171, 13], [86, 74, 36, 188, 324, 347, 96, 244, 268, 289, 221, 207, 111], [248, 82, 37, 320, 280, 274, 276, 93, 3, 131], [355, 246, 45, 318, 69, 92, 48, 189, 66, 270, 288, 266, 156, 133, 7], [83, 253, 191, 78, 42, 198, 22, 163, 226, 132], [254, 238, 128, 333, 242, 278, 64, 336, 53, 264], [300, 88, 310, 30, 60, 323, 134], [307, 87, 76, 222, 46, 59, 319, 267, 342, 218, 287, 212, 345, 105, 173], [147, 306, 257, 16, 265, 129, 285, 349, 23], [71, 41, 205, 335, 271, 277, 332, 79, 351, 209, 101, 316, 112], [292, 309, 258, 247, 35, 290, 340, 40, 57, 343], [348, 89, 295, 75, 259, 94, 311, 272, 217, 211, 206, 321, 54, 358], [291, 303, 28, 181, 67, 263, 25], [213, 296, 176, 302, 195, 14, 208, 164, 145, 138, 52], [168, 299, 223, 146, 68, 203, 269, 216, 219, 262], [298, 214, 72, 81, 24, 282, 172, 0], [297, 44, 334, 11, 224, 331, 62, 183], [293, 243, 346, 337, 204, 256, 180], [215, 10, 255, 165, 357]]</t>
+          <t>[[109, 53], [107, 28], [78, 76], [108, 85, 62], [26, 2], [89, 21, 105, 80], [104, 59, 14], [79, 60, 41], [73, 55, 8], [113, 111, 49], [116, 94, 58], [127, 20], [38, 48], [42, 47], [77, 103], [7, 17], [101, 117, 3], [124, 10], [0, 81, 123], [90, 4], [91, 39], [67, 25], [87, 84], [61, 16], [75], [72], [99], [18], [27, 36], [100], [98, 86], [51, 46], [66, 34], [63, 120], [65, 33], [121, 50], [56, 35], [69], [54], [122], [97, 52], [106], [114, 31], [96, 22], [6, 118], [125], [102, 57], [30, 93], [32, 70], [15, 74], [44, 11], [126], [64, 5], [68, 71], [95], [1, 119], [13, 43], [88], [82], [12], [112], [92], [83], [9], [19], [110], [23], [29], [115], [24], [45], [40], [37]]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -604,27 +604,27 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>le450_5a.col</t>
+          <t>myciel3.col.txt</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002219200134277344</v>
+        <v>8.821487426757812e-06</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[[338, 324, 209, 270, 215, 285, 80, 250, 390, 199, 155, 59, 429, 210, 263, 220, 190, 260, 423, 365, 262, 125, 54, 5, 440, 174, 179, 94, 15, 91, 415, 145, 376, 284, 389, 289, 90, 45, 23, 160, 305, 130, 69, 434, 217, 277, 340, 10, 430, 275, 395, 55, 319, 30, 223], [165, 369, 25, 63, 189, 392, 31, 39, 159, 211, 205, 84, 245, 156, 36, 359, 213, 383, 379, 273, 342, 371, 403, 302, 134, 420, 127, 13, 103, 50, 388, 259, 19, 154, 212, 44, 8, 16, 115, 238, 249, 53, 281], [362, 337, 222, 187, 32, 182, 89, 412, 35, 11, 197, 269, 112, 85, 413, 121, 407, 2, 226, 287, 421, 62, 278, 323, 163, 357, 290, 48, 18, 258, 232, 132, 402, 288, 147, 117, 236, 346, 315, 227, 228, 297, 292, 367, 422, 177, 22, 107, 231, 142, 87, 137, 378, 82, 344], [239, 140, 411, 109, 445, 38, 439, 272, 139, 449, 124, 114, 104, 387, 410, 299, 3, 255, 173, 58, 294, 341, 320, 208, 418, 214, 52, 166, 404, 304, 34, 254, 224, 374, 184, 384, 118, 153, 51, 148, 268, 74, 24, 164, 394, 78, 398, 207, 329, 168, 321], [105, 102, 72, 364, 401, 141, 261, 356, 291, 350, 171, 253, 186, 60, 143, 240, 4, 65, 242, 70, 41, 345, 64, 295, 366, 256, 230, 146, 86, 101, 176, 21, 372, 436, 66, 12, 200, 326, 370, 363, 339, 375, 347, 381, 414, 399, 405, 426, 246, 336, 180, 167, 377, 17, 77, 192, 27], [183, 282, 161, 191, 409, 119, 334, 267, 244, 433, 218, 314, 46, 158, 257, 313, 300, 361, 71, 446, 437, 309, 406, 248, 9, 172, 333, 283, 355, 416, 150, 438, 0, 67, 181, 322, 348, 229, 26, 20, 327, 193, 279, 328, 37, 397], [110, 417, 14, 391, 194, 225, 354, 95, 196, 235, 88, 40, 265, 335, 360, 307, 129, 428, 157, 33, 393, 431, 93, 318, 28, 312, 311, 123, 131, 152, 358, 435, 100, 42, 408, 138, 97, 108, 237, 427, 386, 83, 178, 380, 29], [332, 113, 81, 293, 266, 234, 7, 206, 330, 136, 169, 201, 144, 425, 251, 274, 368, 122, 316, 243, 444, 198, 170, 351, 303, 280, 424, 185, 61, 188, 442, 385, 443, 128, 126, 233], [331, 57, 135, 349, 325, 216, 441, 43, 264, 353, 202, 149, 241, 296, 317, 68, 116, 133, 99, 221, 106, 373, 252, 73, 92, 6, 151, 1, 308, 75, 79, 382, 432, 204, 448], [203, 298, 111, 219, 310, 447, 47, 301, 76, 120, 162, 195, 396, 271, 247, 98, 175, 56, 276, 49, 96, 419], [286, 343, 306, 400, 352]]</t>
+          <t>[[10, 4, 0], [3, 2, 7, 8], [1, 9, 6], [5]]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -642,18 +642,18 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>huck.col</t>
+          <t>myciel7.col.txt</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001020431518554688</v>
+        <v>0.0004518032073974609</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[[54, 42, 37, 70, 62, 36, 34, 25, 6, 32, 60, 27], [3, 43, 12, 16, 71, 73, 23, 2, 35, 65, 14, 64, 47, 53, 69], [56, 48, 17, 22, 52, 41, 15, 44, 31, 57], [40, 0, 51, 33, 29], [8, 72, 28, 61, 63, 50], [21, 59, 10, 66, 30, 1, 38, 9], [39, 26, 11, 20, 13, 45, 68], [58, 67, 46, 5, 7], [24, 18, 19], [4, 55], [49]]</t>
+          <t>[[190, 94, 46, 22, 10, 3, 1], [2, 0, 21, 93, 141, 57, 105, 13, 11, 47, 49, 97, 95, 68, 188, 116, 60, 58, 152, 106, 108, 144, 142, 163, 175, 155, 153, 167, 165, 158, 160, 186, 176, 178, 183, 181], [4, 6, 45, 189, 9, 5, 117, 27, 99, 29, 32, 28, 101, 140, 104, 100, 164, 122, 146, 127, 123, 124, 147, 151, 187, 148, 133, 169, 138, 135, 134, 174, 171, 170, 180, 182, 185], [7, 8, 69, 26, 25, 50, 98, 30, 31, 55, 54, 92, 102, 103, 61, 72, 73, 120, 121, 66, 65, 145, 78, 76, 77, 125, 126, 149, 84, 150, 83, 89, 156, 87, 88, 168, 161, 172, 173, 179, 184], [33, 14, 12, 15, 24, 48, 96, 44, 80, 38, 35, 37, 128, 62, 59, 110, 109, 107, 40, 42, 71, 43, 119, 143, 91, 139, 82, 85, 132, 130, 157, 154, 90, 137, 166, 177], [23, 51, 20, 16, 52, 56, 34, 74, 39, 70, 118, 67, 63, 115, 111, 79, 75, 81, 129, 86, 162], [17, 19, 18, 53, 41, 64, 114, 113, 112, 136, 159], [36, 131]]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -671,18 +671,18 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>le450_15b.col</t>
+          <t>queen11_11.col</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002123117446899414</v>
+        <v>0.0002908706665039062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[[31, 199, 364, 416, 286, 13, 74, 188, 437, 443, 130, 209, 282, 151, 71, 355, 110, 424, 433, 141, 149, 229, 162, 400, 439, 446, 49, 58, 326, 212, 438, 102, 50, 107, 91, 346, 235, 390], [114, 300, 356, 156, 48, 305, 116, 281, 140, 1, 315, 215, 391, 234, 420, 254, 371, 159, 330, 296, 219, 191, 359, 404, 347, 230, 361, 32, 208, 39, 8, 59, 185, 90, 47, 158, 381, 100, 406, 28], [398, 182, 428, 360, 238, 152, 358, 120, 412, 413, 46, 34, 165, 88, 321, 374, 427, 278, 224, 272, 397, 133, 142, 226, 176, 383, 245, 389, 352], [269, 237, 440, 312, 214, 29, 73, 220, 418, 76, 289, 216, 136, 274, 148, 419, 407, 2, 87, 337, 101, 414, 128, 56, 291], [333, 402, 221, 322, 287, 137, 342, 368, 168, 123, 262, 54, 303, 334, 113, 166, 246, 353, 85, 228, 197, 421, 350, 317, 385, 408], [396, 399, 175, 3, 198, 266, 163, 231, 379, 351, 22, 211, 435, 251, 348, 227, 271, 201, 37, 367, 104, 301, 285, 23, 429, 139, 27], [4, 425, 83, 218, 295, 144, 373, 401, 260, 279, 200, 210, 184, 241, 273, 24, 147, 332, 255, 403, 30, 93, 60, 92, 432, 447, 240, 26, 422], [268, 122, 292, 164, 9, 365, 53, 275, 340, 284, 205, 78, 304, 117, 97, 43, 82, 126, 57, 183, 280, 405, 72, 127, 33, 125, 213, 290, 106], [243, 52, 124, 250, 75, 20, 45, 99, 132, 118, 261, 426, 35, 434, 393, 223, 80, 150, 293, 316, 19, 66, 84, 270, 349], [318, 242, 86, 257, 392, 44, 36, 247, 327, 259, 311, 203, 363, 67, 366, 167, 169, 186, 157, 108, 193, 294, 313, 233, 380], [328, 207, 370, 95, 277, 38, 249, 15, 384, 344, 195, 263, 265, 161, 267, 376, 314, 372, 299, 387, 25, 7, 441, 222], [319, 121, 16, 298, 377, 61, 6, 131, 111, 70, 96, 378, 160, 189, 244, 448, 135, 357, 217, 105, 65, 173, 409, 81, 362, 68], [0, 339, 174, 187, 177, 204, 415, 40, 331, 180, 252, 190, 306, 345, 225, 283, 336, 14, 196, 21, 417, 302, 309, 382, 288, 129, 386, 115], [449, 436, 112, 264, 297, 232, 145, 69, 109, 62, 325, 119, 179, 253, 430, 64, 79, 194, 320, 369, 323, 170, 307, 324, 411, 256, 394], [77, 134, 329, 335, 181, 410, 239, 236, 338, 431, 143, 442, 172, 258, 89, 153, 138, 178, 445, 5, 98, 341, 206, 248], [146, 17, 310, 343, 192, 10, 11, 94, 155, 41, 55, 18, 276, 423, 444, 354, 42, 154, 63, 51], [171, 103, 308, 375, 202, 395, 388, 12]]</t>
+          <t>[[60, 73, 39, 47, 81, 118, 32, 88, 2], [49, 72, 58, 40, 26, 107, 77, 21], [48, 71, 62, 80, 94, 13, 9, 43], [50, 59, 82, 36, 68, 97, 7, 111], [61, 70, 38, 84, 52, 89, 11, 3], [37, 83, 69, 51, 24, 64, 100, 8, 115, 98], [29, 57, 96, 15, 102, 34, 6, 110], [41, 46, 27, 92, 14, 78, 105, 55, 76, 119], [95, 63, 25, 79, 20, 104, 66, 4, 120], [85, 35, 91, 28, 12, 106, 53, 114, 10], [74, 90, 18, 108, 56, 87, 113, 5, 33], [93, 30, 67, 101, 86, 65, 44], [19, 103, 42, 23, 117, 0], [17, 45, 75, 109, 112, 22], [16, 31, 116, 54, 99, 1]]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -700,18 +700,18 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>anna.col</t>
+          <t>school1.col.txt</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001878738403320312</v>
+        <v>0.001958847045898438</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[[17, 76, 132, 60, 29, 119, 92, 125, 136, 121, 16, 46, 13, 21, 133, 109, 59, 51, 97, 64, 23, 118, 37, 101, 85, 65, 128, 55, 1, 124, 70, 0, 2, 47, 4], [35, 77, 53, 28, 67, 100, 8, 108, 52, 48, 57, 33, 111, 34, 24, 81, 96, 43, 11, 39, 83, 116, 54, 123, 110, 7, 74, 68, 49, 62, 40, 104, 9, 127, 14, 22, 42, 30, 41, 120, 87, 86, 38, 26, 3, 112, 106, 113], [94, 88, 20, 6, 126, 58, 56, 45, 15, 122, 130, 27, 10, 12, 66, 89, 61, 79, 95, 131], [73, 63, 99, 69, 105, 117, 114, 78, 36, 103, 102], [71, 135, 91, 50, 129, 93], [137, 72, 5, 75, 25], [134, 32, 44, 31, 18], [115, 19, 84, 82], [98, 107], [80], [90]]</t>
+          <t>[[373, 370, 369, 374, 372, 371, 362, 356, 228, 360, 167, 361, 104, 12, 161, 312, 381, 187, 193, 240, 235, 137, 103, 314, 315], [367, 366, 364, 368, 365, 363, 376, 375, 377, 379, 352, 354, 98, 353, 139, 184, 192, 313, 135, 283, 136, 284], [233, 384, 383, 249, 151, 123, 328, 325, 304, 73, 90, 273, 350, 279, 65, 220, 5, 182, 110, 260, 229, 95, 359, 194, 85, 39], [232, 237, 152, 148, 27, 4, 158, 118, 116, 185, 327, 21, 43, 308, 1], [120, 236, 18, 330, 154, 196, 100, 166, 9, 113, 115, 141, 155, 56, 380, 186], [17, 144, 227, 329, 202, 160, 129, 109, 261, 2, 51, 175, 382], [124, 239, 20, 305, 38, 230, 197, 149, 170, 50, 157, 8, 117, 99, 378], [251, 339, 119, 19, 231, 178, 31, 55, 6, 84], [252, 190, 143, 126, 102, 200, 177, 47, 63, 26, 174, 210], [338, 122, 179, 49, 199, 70, 34, 322, 301, 159, 105, 326], [29, 150, 153, 127, 15, 97, 61, 275, 281, 225, 169, 32, 114, 234, 140], [250, 121, 241, 80, 77, 91, 286, 341, 58, 344, 162, 107], [245, 142, 125, 294, 33, 317, 201, 108, 171, 13], [86, 355, 246, 318, 69, 96, 280, 274, 276, 221], [248, 82, 37, 324, 59, 342, 267, 287, 163, 345, 145, 132], [74, 83, 36, 188, 347, 92, 244, 224, 268, 289, 263, 207, 138, 133, 111, 7, 131], [253, 307, 191, 238, 128, 30, 66, 288, 266, 164, 226, 156, 54, 112], [254, 333, 222, 320, 205, 298, 214, 72, 278, 64, 336, 272, 183], [300, 88, 310, 45, 60, 323, 22, 264], [147, 87, 78, 42, 189, 11, 198, 24, 357, 134], [71, 306, 41, 265, 335, 332, 319, 285, 256, 351], [76, 89, 257, 35, 94, 271, 277, 218, 212, 206], [348, 242, 295, 75, 48, 290, 340, 57, 343, 217, 10, 211, 53], [292, 309, 258, 247, 40, 68, 269, 14, 208, 172, 106], [291, 46, 44, 130, 146, 215, 282, 62, 52], [213, 303, 296, 176, 195, 25, 209, 101, 0], [168, 297, 334, 259, 331, 311, 67, 349, 23, 316], [16, 346, 302, 181, 270, 203, 180, 358], [299, 81, 337, 216, 93, 219, 3], [293, 243, 223, 204, 173, 262], [28, 79, 255, 165, 321]]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -720,27 +720,27 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>miles1000.col</t>
+          <t>school1_nsh.col.txt</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004200935363769531</v>
+        <v>0.001656055450439453</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[[75, 35, 15, 71, 20, 105], [26, 85, 86, 50, 55, 48], [127, 117, 4, 119, 94, 33, 16], [87, 11, 21, 8], [61, 30, 59, 2], [7, 22, 31, 3], [90, 102, 34, 25], [67, 32, 118, 103], [91, 64, 43, 47, 58], [27, 56, 120, 123], [42, 83, 36, 17], [51, 97, 62, 28], [106, 73, 111, 80], [65, 54, 39, 49], [122, 79, 41, 76], [125, 0, 10, 53], [109, 92, 84, 14], [98, 12, 46], [63, 82, 96], [107, 9], [114, 101], [113, 95], [74, 89], [99, 70, 81], [44, 66, 104], [121, 116, 93], [1, 78], [126, 38], [6, 69], [72, 110], [112, 108], [68, 88], [19, 77], [29, 100], [23, 18], [13, 40], [37, 124], [115], [52], [57, 5], [24], [45], [60]]</t>
+          <t>[[233, 237, 152, 123, 4, 158, 182, 53, 111, 141, 185, 228, 327, 21, 104, 308, 312, 240, 235, 85, 192, 284, 136, 283, 135], [232, 236, 154, 102, 90, 27, 173, 0, 155, 194, 12, 39, 315, 137, 314, 103], [120, 18, 227, 230, 74, 160, 34, 347, 244, 203, 343, 2, 112, 167, 43, 98, 187, 193, 1, 313], [124, 239, 20, 305, 38, 30, 108, 64, 149, 170, 156, 50, 8, 99, 56, 184], [249, 151, 153, 328, 83, 76, 93, 169, 118, 116, 234, 140, 186, 161], [17, 144, 329, 86, 178, 42, 109, 278, 272, 225, 7, 175], [251, 190, 122, 339, 19, 231, 260, 95, 107, 138, 6], [252, 150, 29, 126, 179, 238, 14, 342, 164, 51, 262, 115, 139], [338, 119, 330, 49, 199, 197, 293, 346, 243, 265, 176, 198, 322, 285, 166, 301, 255, 105, 145, 326], [250, 143, 82, 36, 200, 317, 168, 77, 216, 219, 114, 132], [121, 245, 241, 294, 306, 41, 286, 341, 58, 256, 344, 218, 101, 54], [127, 142, 246, 325, 309, 201, 48, 44, 277, 195, 271, 209, 113], [125, 253, 307, 191, 196, 33, 78, 91, 208, 117], [248, 148, 177, 213, 222, 296, 63, 62, 174, 106, 131], [254, 128, 188, 333, 257, 94, 28, 289, 67, 268, 183, 226, 316], [300, 88, 45, 318, 310, 205, 60, 280, 274, 276, 172], [37, 15, 69, 242, 320, 75, 290, 340, 79], [147, 70, 87, 202, 189, 11, 323, 23, 134], [73, 304, 258, 35, 273, 279, 350, 65, 220, 5, 163, 110, 229], [71, 80, 324, 96, 332, 335, 270, 267, 351, 84], [348, 89, 295, 92, 59, 259, 311, 162, 66, 217, 206, 211, 171, 133], [247, 292, 31, 303, 181, 275, 281, 61, 263, 13, 52], [16, 214, 81, 97, 159, 336, 288, 264], [299, 46, 146, 100, 40, 57, 68], [297, 47, 334, 331, 319, 349, 269, 24], [291, 224, 130, 337, 204, 215, 282, 25, 261, 210], [298, 72, 302, 180, 10, 266, 55, 321], [129, 223, 22, 165, 287, 345, 3, 32], [221, 212, 26, 9, 207, 157]]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -749,125 +749,9 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>myciel7.col.txt</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0004510879516601562</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[[190, 94, 46, 22, 10, 2, 3], [4, 1, 6, 93, 9, 141, 69, 117, 51, 48, 96, 99, 53, 56, 188, 101, 104, 164, 146, 143, 187, 151, 148, 154, 157, 166, 169, 159, 162, 171, 174, 177, 180, 185, 182], [0, 7, 45, 189, 5, 23, 25, 97, 95, 30, 28, 140, 100, 102, 36, 34, 41, 39, 120, 118, 142, 144, 127, 125, 123, 149, 147, 131, 129, 167, 138, 136, 134, 165, 172, 170, 176, 178, 181, 183], [21, 33, 57, 105, 12, 13, 11, 14, 15, 44, 68, 116, 38, 37, 35, 80, 128, 58, 61, 59, 62, 60, 152, 108, 109, 106, 110, 107, 91, 139, 163, 84, 82, 81, 85, 83, 175, 132, 133, 130, 153, 155, 156, 186, 179, 184], [8, 26, 24, 50, 98, 19, 17, 29, 31, 55, 103, 40, 42, 71, 73, 119, 121, 64, 145, 66, 112, 114, 78, 76, 77, 126, 124, 150, 88, 89, 87, 137, 135, 168, 161, 173], [27, 47, 16, 20, 32, 52, 70, 43, 74, 122, 63, 67, 111, 115, 75, 79, 86, 90, 158], [49, 18, 54, 72, 65, 113, 160], [92]]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TEST PASS</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>latin_square_10.col.txt</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>143</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01581096649169922</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[[430, 185, 865, 270, 97, 6, 604, 793, 519, 708], [162, 596, 257, 344, 634, 78, 857, 721, 414, 509], [13, 753, 197, 665, 408, 591, 898, 503, 285, 101], [72, 652, 861, 164, 744, 546, 361, 349, 454], [294, 396, 726, 582, 825, 108, 630, 487, 199, 21], [525, 438, 315, 612, 52, 228, 140, 687, 774, 837], [431, 288, 716, 603, 24, 855, 202, 116, 518, 801], [622, 631, 53, 135, 316, 227, 720, 829, 441, 533], [49, 691, 577, 232, 401, 883, 493, 775], [435, 856, 70, 613, 661, 748, 248, 527, 156, 334], [166, 350, 575, 764, 872, 258, 671, 390, 482, 75], [428, 516, 293, 112, 200, 770, 678, 842, 609], [725, 247, 64, 462, 153, 339, 369, 554, 851, 633], [541, 803, 195, 107, 875, 456, 368, 280, 9, 718], [640, 330, 62, 735, 145, 834, 236, 442, 628], [159, 688, 410, 592, 68, 781, 499, 853, 340], [732, 337, 543, 154, 451, 360, 831, 63, 245], [121, 33, 513, 813, 607, 207, 300, 769, 675], [346, 411, 787, 696, 169, 589, 255, 840, 77, 498], [286, 417, 754, 601, 190, 14, 835, 659, 506], [233, 552, 710, 467, 895, 46, 142, 319, 376, 796], [90, 620, 184, 7, 278, 737, 863, 433, 643], [69, 758, 893, 674, 418, 251, 335, 512, 157], [752, 463, 357, 82, 860, 266, 174, 371], [555, 377, 460, 713, 73, 170, 254, 808], [87, 783, 882, 700, 269, 511, 178, 351, 420, 594], [287, 16, 684, 104, 818, 782, 522, 189], [22, 709, 881, 204, 593, 115, 412, 800, 296, 501], [629, 240, 745, 654, 146, 331, 538, 443, 880], [284, 515, 704, 15, 833, 798, 106], [308, 767, 866, 623, 537, 44, 446, 221, 680, 130], [777, 261, 468, 383, 354, 83, 177, 812, 560], [733, 25, 617, 526, 642, 292, 109, 201, 850], [738, 59, 891, 585, 656, 407, 242, 324], [780, 686, 95, 488, 181, 276, 3], [804, 51, 318, 715, 517, 229, 143, 849, 606], [790, 574, 698, 193, 393, 11, 105, 862, 481], [771, 267, 870, 400, 176, 491, 358, 85], [387, 877, 84, 636, 723, 483, 171, 268, 570, 355], [755, 165, 495, 657, 252], [756, 558, 476, 47, 139, 381], [273, 415, 188, 598, 647, 5], [806, 329, 234, 152, 57, 571, 711, 814, 477, 395], [894, 409, 759, 111, 588, 206, 290], [627, 448, 180, 532, 789, 275, 8, 824, 694, 96], [760, 27, 214, 363, 301, 887, 120, 673, 544, 457], [389, 874, 137, 48, 739, 231, 568], [845, 370, 37, 557, 461, 314, 650, 746, 128, 219], [624, 731, 216, 639, 127, 531, 309], [563, 664, 138, 888, 380, 320, 475], [600, 50, 706, 852, 321, 799, 508, 421], [375, 890, 187, 791, 466, 0], [402, 784, 215, 892, 298, 701, 30, 494, 123], [773, 149, 611, 682, 60, 241, 520, 332], [348, 425, 651, 256, 79, 743], [595, 705, 23, 838, 289, 507], [794, 535, 71, 160, 449, 848], [828, 765, 76, 342, 677, 576, 167], [805, 868, 29, 473, 125, 717, 561, 212, 386], [635, 727, 12, 871, 99, 194, 583], [618, 434, 213, 119, 302, 879, 529, 34], [749, 578, 235, 147, 658, 326, 399, 58, 820], [338, 398, 580, 244, 649, 742, 67, 155, 823], [566, 693, 384, 150, 56], [510, 730, 353, 172, 645], [551, 134, 719, 885, 223], [750, 18, 859, 110, 291, 362], [766, 683, 36, 458, 224, 540, 307, 364], [832, 394, 39, 133, 310, 797, 218, 479], [490, 736, 211, 397, 118, 304], [424, 884, 271, 646, 605], [788, 699, 439, 114, 203, 528, 869], [779, 478, 168, 253, 347, 685, 392], [662, 614, 43, 129], [843, 385, 237, 151, 470, 564], [668, 762, 619, 303, 209, 524, 436], [584, 632, 144, 489, 728], [279, 873, 391, 681, 567, 103], [667, 562, 65, 469], [352, 497, 757, 586, 263, 86, 175], [886, 539, 205, 625, 778, 113, 447, 26], [496, 785, 217, 132, 40, 587], [455, 45, 809, 230, 322, 547], [259, 768, 373, 345, 876, 465], [536, 297, 35, 707, 621, 792, 124], [173, 610, 88, 265, 359], [404, 864, 161, 249, 333], [505, 313, 41, 772, 676, 826, 419], [38, 724, 841, 126, 378], [403, 191, 839], [669, 55, 372, 549, 148], [471, 565, 382, 183, 277, 94, 679, 1], [822, 226, 416, 741], [695, 343, 80], [889, 502, 312, 413], [246, 534, 626, 445], [453, 325, 660, 54, 847, 238], [608, 260, 521, 429, 896, 692], [663, 186, 4, 590, 92], [644, 569, 317, 136, 388], [225, 615, 648, 740], [485, 899, 102, 763], [182, 437, 616], [858, 220, 422, 597], [31, 817, 122], [28, 815, 459, 702], [243, 579, 795, 336, 486], [196, 545, 655, 100], [327, 530, 61, 722, 638, 432], [74, 672, 878, 474], [208, 305, 365, 548, 827, 450], [452, 341, 367], [484, 250, 572, 734, 66], [697, 272, 786], [690, 222, 374, 553, 131], [262, 89, 821, 523], [504, 816, 32, 666], [283, 192, 440], [274, 464, 91, 653], [282, 366], [836, 323, 141, 602], [729, 480, 846, 163], [299, 776, 811, 550], [81, 867, 542, 179], [556, 19, 670, 295], [810, 559, 802], [406, 854, 210], [379, 844, 641, 264], [581, 198, 807], [444, 747, 819, 306], [426, 751, 42, 514], [427, 830, 93], [703, 573, 2], [714, 311], [423, 117, 637], [689, 281, 10, 472], [599, 356], [761, 17], [492, 98], [500, 405], [158, 897], [712, 20], [239, 328]]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>TEST PASS</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>97</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>jean.col.txt</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9.322166442871094e-05</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[[36, 33, 32, 15, 25, 75, 17, 41, 22, 7, 73, 53, 31, 12, 40, 64, 51, 0, 11, 23, 79, 50, 35, 20, 48, 70], [71, 2, 58, 47, 13, 38, 42, 30, 44, 60, 61, 52, 66, 55, 69], [14, 27, 3, 68, 16, 1, 10, 59, 77], [56, 8, 4, 39, 76, 45, 29, 63, 74], [65, 43, 5, 62, 28, 21], [18, 34, 24, 19], [6, 54, 26, 9], [67, 57, 46, 72], [78], [37, 49]]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TEST PASS</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>school1_nsh.col.txt</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>29</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.001656055450439453</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[[233, 237, 152, 123, 4, 158, 182, 53, 111, 141, 185, 228, 327, 21, 104, 308, 312, 240, 1, 192, 235, 284, 137, 136, 103], [232, 236, 154, 102, 90, 27, 173, 0, 155, 194, 12, 39, 314, 315, 283, 135], [120, 18, 227, 74, 230, 160, 34, 347, 244, 203, 343, 2, 112, 167, 43, 98, 187, 193, 85, 313], [124, 239, 20, 305, 38, 30, 108, 64, 149, 170, 156, 50, 8, 99, 56, 184], [249, 151, 153, 328, 83, 76, 93, 169, 117, 115, 234, 140, 186, 161], [17, 144, 329, 86, 178, 42, 109, 278, 272, 225, 7, 175], [251, 122, 190, 339, 19, 231, 260, 95, 107, 6, 138], [252, 29, 150, 126, 179, 238, 342, 14, 164, 51, 262, 116, 139], [119, 338, 330, 49, 199, 197, 293, 243, 346, 265, 176, 322, 198, 285, 166, 301, 255, 105, 145, 326], [250, 143, 82, 36, 200, 317, 168, 77, 216, 219, 114, 118, 131], [121, 245, 241, 294, 306, 41, 286, 341, 58, 256, 344, 218, 101, 54], [127, 142, 246, 325, 309, 201, 48, 44, 277, 195, 271, 209, 113], [125, 253, 307, 191, 196, 33, 78, 91, 208], [248, 37, 177, 242, 320, 31, 63, 62, 174, 132], [254, 128, 188, 333, 257, 94, 28, 289, 268, 67, 207, 25, 226, 13], [300, 148, 310, 16, 60, 274, 276, 172, 84], [15, 147, 202, 189, 323, 224, 23, 134], [88, 73, 45, 318, 205, 279, 273, 350, 65, 220, 5, 110], [304, 222, 348, 258, 295, 35, 75, 290, 340, 57, 217, 163, 211], [213, 87, 324, 96, 280, 165, 157], [70, 247, 292, 46, 92, 129, 270, 267, 229, 171, 133], [71, 80, 146, 100, 332, 335, 68, 269, 351, 32], [69, 89, 259, 97, 311, 162, 275, 281, 206], [299, 303, 59, 11, 181, 319, 66, 106], [296, 81, 130, 40, 337, 159, 24, 288, 261, 3], [297, 47, 334, 331, 79, 349, 61, 266, 263, 316, 52], [214, 298, 72, 223, 204, 336, 22, 282, 183, 264], [291, 302, 215, 180, 10, 287, 345, 55, 321], [221, 9, 212, 26, 210]]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TEST PASS</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>21</v>
-      </c>
-      <c r="G15" t="b">
         <v>0</v>
       </c>
     </row>
